--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -454,10 +454,10 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>846814.23</v>
+        <v>994314.84</v>
       </c>
       <c r="C7">
-        <v>-80.9625674477055</v>
+        <v>-77.64657107587163</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,65 +399,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2">
-        <v>162593.82</v>
+        <v>950468.77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3">
-        <v>957144.34</v>
+        <v>1766113.68</v>
       </c>
       <c r="C3">
-        <v>488.6720294781191</v>
+        <v>85.81501420609537</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B4">
-        <v>1772367.68</v>
+        <v>2842827.64</v>
       </c>
       <c r="C4">
-        <v>85.17245580744905</v>
+        <v>60.96515599154411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B5">
-        <v>2845386.58</v>
+        <v>4442894.22</v>
       </c>
       <c r="C5">
-        <v>60.5415519651092</v>
+        <v>56.28433315781323</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B6">
-        <v>4448153.54</v>
+        <v>1014612.85</v>
       </c>
       <c r="C6">
-        <v>56.3286187987855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-      <c r="B7">
-        <v>994314.84</v>
-      </c>
-      <c r="C7">
-        <v>-77.64657107587163</v>
+        <v>-77.1632454035784</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Ano</t>
   </si>
   <si>
-    <t>total_item</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Evolucao (%)</t>
+    <t>Evolução Total (%)</t>
+  </si>
+  <si>
+    <t>Qtd Produtos</t>
   </si>
 </sst>
 </file>
@@ -380,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,57 +399,89 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>23866.41</v>
+      </c>
+      <c r="D2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>2021</v>
       </c>
-      <c r="B2">
-        <v>950468.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="B3">
+        <v>279918.14</v>
+      </c>
+      <c r="C3">
+        <v>1072.853981809581</v>
+      </c>
+      <c r="D3">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>2022</v>
       </c>
-      <c r="B3">
-        <v>1766113.68</v>
-      </c>
-      <c r="C3">
-        <v>85.81501420609537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="B4">
+        <v>504349.28</v>
+      </c>
+      <c r="C4">
+        <v>80.17741901257274</v>
+      </c>
+      <c r="D4">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>2023</v>
       </c>
-      <c r="B4">
-        <v>2842827.64</v>
-      </c>
-      <c r="C4">
-        <v>60.96515599154411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="B5">
+        <v>802464.89</v>
+      </c>
+      <c r="C5">
+        <v>59.1089591721039</v>
+      </c>
+      <c r="D5">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>2024</v>
       </c>
-      <c r="B5">
-        <v>4442894.22</v>
-      </c>
-      <c r="C5">
-        <v>56.28433315781323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="B6">
+        <v>1197062.47</v>
+      </c>
+      <c r="C6">
+        <v>49.17318937156241</v>
+      </c>
+      <c r="D6">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>2025</v>
       </c>
-      <c r="B6">
-        <v>1014612.85</v>
-      </c>
-      <c r="C6">
-        <v>-77.1632454035784</v>
+      <c r="B7">
+        <v>396607.32</v>
+      </c>
+      <c r="C7">
+        <v>-66.86828549557652</v>
+      </c>
+      <c r="D7">
+        <v>1635</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -475,13 +475,13 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>396607.32</v>
+        <v>421672.91</v>
       </c>
       <c r="C7">
-        <v>-66.86828549557652</v>
+        <v>-64.77436052272193</v>
       </c>
       <c r="D7">
-        <v>1635</v>
+        <v>1729</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -408,7 +408,7 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>23866.41</v>
+        <v>116037.66</v>
       </c>
       <c r="D2">
         <v>262</v>
@@ -419,10 +419,10 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>279918.14</v>
+        <v>956806.1899999999</v>
       </c>
       <c r="C3">
-        <v>1072.853981809581</v>
+        <v>724.5652230491376</v>
       </c>
       <c r="D3">
         <v>2168</v>
@@ -433,10 +433,10 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>504349.28</v>
+        <v>1772410.88</v>
       </c>
       <c r="C4">
-        <v>80.17741901257274</v>
+        <v>85.24241361774634</v>
       </c>
       <c r="D4">
         <v>2708</v>
@@ -447,10 +447,10 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>802464.89</v>
+        <v>2846150.66</v>
       </c>
       <c r="C5">
-        <v>59.1089591721039</v>
+        <v>60.58074863544059</v>
       </c>
       <c r="D5">
         <v>3337</v>
@@ -461,10 +461,10 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>1197062.47</v>
+        <v>4457482.68</v>
       </c>
       <c r="C6">
-        <v>49.17318937156241</v>
+        <v>56.61443164783131</v>
       </c>
       <c r="D6">
         <v>4742</v>
@@ -475,13 +475,13 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>421672.91</v>
+        <v>1989051.38</v>
       </c>
       <c r="C7">
-        <v>-64.77436052272193</v>
+        <v>-55.3772493850722</v>
       </c>
       <c r="D7">
-        <v>1729</v>
+        <v>1746</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -408,10 +408,10 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>116037.66</v>
+        <v>115677.51</v>
       </c>
       <c r="D2">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,13 +419,13 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>956806.1899999999</v>
+        <v>953108.38</v>
       </c>
       <c r="C3">
-        <v>724.5652230491376</v>
+        <v>723.9357676353857</v>
       </c>
       <c r="D3">
-        <v>2168</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,13 +433,13 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>1772410.88</v>
+        <v>1786705.19</v>
       </c>
       <c r="C4">
-        <v>85.24241361774634</v>
+        <v>87.46086253065994</v>
       </c>
       <c r="D4">
-        <v>2708</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,13 +447,13 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>2846150.66</v>
+        <v>2885974.02</v>
       </c>
       <c r="C5">
-        <v>60.58074863544059</v>
+        <v>61.52491391151107</v>
       </c>
       <c r="D5">
-        <v>3337</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,13 +461,13 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>4457482.68</v>
+        <v>4517432.77</v>
       </c>
       <c r="C6">
-        <v>56.61443164783131</v>
+        <v>56.53061111062945</v>
       </c>
       <c r="D6">
-        <v>4742</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,13 +475,13 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1989051.38</v>
+        <v>1774017.75</v>
       </c>
       <c r="C7">
-        <v>-55.3772493850722</v>
+        <v>-60.72951518435104</v>
       </c>
       <c r="D7">
-        <v>1746</v>
+        <v>1680</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -475,13 +475,13 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1774017.75</v>
+        <v>1910102.1</v>
       </c>
       <c r="C7">
-        <v>-60.72951518435104</v>
+        <v>-57.71708850467297</v>
       </c>
       <c r="D7">
-        <v>1680</v>
+        <v>1823</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -475,13 +475,13 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1910102.1</v>
+        <v>1959641.72</v>
       </c>
       <c r="C7">
-        <v>-57.71708850467297</v>
+        <v>-56.62045635711807</v>
       </c>
       <c r="D7">
-        <v>1823</v>
+        <v>1868</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -475,13 +475,13 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1959641.72</v>
+        <v>1975536.79</v>
       </c>
       <c r="C7">
-        <v>-56.62045635711807</v>
+        <v>-56.26859566965952</v>
       </c>
       <c r="D7">
-        <v>1868</v>
+        <v>1887</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Ano</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>Qtd Produtos</t>
+  </si>
+  <si>
+    <t>Qtd Vendas</t>
+  </si>
+  <si>
+    <t>Ticket Médio Anual</t>
+  </si>
+  <si>
+    <t>Evolução Ticket Médio (%)</t>
   </si>
 </sst>
 </file>
@@ -383,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +411,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -413,8 +431,14 @@
       <c r="D2">
         <v>258</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>258</v>
+      </c>
+      <c r="F2">
+        <v>448.3624418604651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -427,8 +451,17 @@
       <c r="D3">
         <v>2141</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>2141</v>
+      </c>
+      <c r="F3">
+        <v>445.1697244278375</v>
+      </c>
+      <c r="G3">
+        <v>-0.712084049542494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -441,8 +474,17 @@
       <c r="D4">
         <v>2716</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>2716</v>
+      </c>
+      <c r="F4">
+        <v>657.8443262150221</v>
+      </c>
+      <c r="G4">
+        <v>47.77382425557543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -455,8 +497,17 @@
       <c r="D5">
         <v>3342</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>3342</v>
+      </c>
+      <c r="F5">
+        <v>863.5469838420108</v>
+      </c>
+      <c r="G5">
+        <v>31.26919993526753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -469,8 +520,17 @@
       <c r="D6">
         <v>4662</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>4662</v>
+      </c>
+      <c r="F6">
+        <v>968.9902981552981</v>
+      </c>
+      <c r="G6">
+        <v>12.21048956064428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -482,6 +542,15 @@
       </c>
       <c r="D7">
         <v>1887</v>
+      </c>
+      <c r="E7">
+        <v>1887</v>
+      </c>
+      <c r="F7">
+        <v>1046.919337572867</v>
+      </c>
+      <c r="G7">
+        <v>8.04229305142945</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1975536.79</v>
+        <v>1993158.79</v>
       </c>
       <c r="C7">
-        <v>-56.26859566965952</v>
+        <v>-55.8785068537943</v>
       </c>
       <c r="D7">
-        <v>1887</v>
+        <v>1906</v>
       </c>
       <c r="E7">
-        <v>1887</v>
+        <v>1906</v>
       </c>
       <c r="F7">
-        <v>1046.919337572867</v>
+        <v>1045.728641133263</v>
       </c>
       <c r="G7">
-        <v>8.04229305142945</v>
+        <v>7.91941293159022</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>1993158.79</v>
+        <v>2002837.36</v>
       </c>
       <c r="C7">
-        <v>-55.8785068537943</v>
+        <v>-55.66425751146264</v>
       </c>
       <c r="D7">
-        <v>1906</v>
+        <v>1922</v>
       </c>
       <c r="E7">
-        <v>1906</v>
+        <v>1922</v>
       </c>
       <c r="F7">
-        <v>1045.728641133263</v>
+        <v>1042.058980228928</v>
       </c>
       <c r="G7">
-        <v>7.91941293159022</v>
+        <v>7.54070316418376</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2002837.36</v>
+        <v>2038323.67</v>
       </c>
       <c r="C7">
-        <v>-55.66425751146264</v>
+        <v>-54.87871599249057</v>
       </c>
       <c r="D7">
-        <v>1922</v>
+        <v>1951</v>
       </c>
       <c r="E7">
-        <v>1922</v>
+        <v>1951</v>
       </c>
       <c r="F7">
-        <v>1042.058980228928</v>
+        <v>1044.758416196822</v>
       </c>
       <c r="G7">
-        <v>7.54070316418376</v>
+        <v>7.819285516662711</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2038323.67</v>
+        <v>2054412.45</v>
       </c>
       <c r="C7">
-        <v>-54.87871599249057</v>
+        <v>-54.5225672500711</v>
       </c>
       <c r="D7">
-        <v>1951</v>
+        <v>1960</v>
       </c>
       <c r="E7">
-        <v>1951</v>
+        <v>1960</v>
       </c>
       <c r="F7">
-        <v>1044.758416196822</v>
+        <v>1048.169617346939</v>
       </c>
       <c r="G7">
-        <v>7.819285516662711</v>
+        <v>8.171322183759443</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2054412.45</v>
+        <v>2105981.08</v>
       </c>
       <c r="C7">
-        <v>-54.5225672500711</v>
+        <v>-53.38101999025433</v>
       </c>
       <c r="D7">
-        <v>1960</v>
+        <v>1989</v>
       </c>
       <c r="E7">
-        <v>1960</v>
+        <v>1989</v>
       </c>
       <c r="F7">
-        <v>1048.169617346939</v>
+        <v>1058.814017094017</v>
       </c>
       <c r="G7">
-        <v>8.171322183759443</v>
+        <v>9.269826448182172</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2105981.08</v>
+        <v>2142476.95</v>
       </c>
       <c r="C7">
-        <v>-53.38101999025433</v>
+        <v>-52.57313037997906</v>
       </c>
       <c r="D7">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="E7">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="F7">
-        <v>1058.814017094017</v>
+        <v>1063.791931479643</v>
       </c>
       <c r="G7">
-        <v>9.269826448182172</v>
+        <v>9.783548246543017</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2142476.95</v>
+        <v>2176806.51</v>
       </c>
       <c r="C7">
-        <v>-52.57313037997906</v>
+        <v>-51.81319521884107</v>
       </c>
       <c r="D7">
-        <v>2014</v>
+        <v>2054</v>
       </c>
       <c r="E7">
-        <v>2014</v>
+        <v>2054</v>
       </c>
       <c r="F7">
-        <v>1063.791931479643</v>
+        <v>1059.788953261928</v>
       </c>
       <c r="G7">
-        <v>9.783548246543017</v>
+        <v>9.37044006317571</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2176806.51</v>
+        <v>2197704.26</v>
       </c>
       <c r="C7">
-        <v>-51.81319521884107</v>
+        <v>-51.35059287224324</v>
       </c>
       <c r="D7">
-        <v>2054</v>
+        <v>2084</v>
       </c>
       <c r="E7">
-        <v>2054</v>
+        <v>2084</v>
       </c>
       <c r="F7">
-        <v>1059.788953261928</v>
+        <v>1054.560585412668</v>
       </c>
       <c r="G7">
-        <v>9.37044006317571</v>
+        <v>8.830871415356079</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -443,22 +443,22 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>953108.38</v>
+        <v>956164.54</v>
       </c>
       <c r="C3">
-        <v>723.9357676353857</v>
+        <v>726.5777332171136</v>
       </c>
       <c r="D3">
-        <v>2141</v>
+        <v>2159</v>
       </c>
       <c r="E3">
-        <v>2141</v>
+        <v>2159</v>
       </c>
       <c r="F3">
-        <v>445.1697244278375</v>
+        <v>442.8738026864289</v>
       </c>
       <c r="G3">
-        <v>-0.712084049542494</v>
+        <v>-1.224152306616322</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>1786705.19</v>
+        <v>1772367.68</v>
       </c>
       <c r="C4">
-        <v>87.46086253065994</v>
+        <v>85.36220554675663</v>
       </c>
       <c r="D4">
-        <v>2716</v>
+        <v>2707</v>
       </c>
       <c r="E4">
-        <v>2716</v>
+        <v>2707</v>
       </c>
       <c r="F4">
-        <v>657.8443262150221</v>
+        <v>654.7350129294422</v>
       </c>
       <c r="G4">
-        <v>47.77382425557543</v>
+        <v>47.83782850958536</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>2885974.02</v>
+        <v>2845202.68</v>
       </c>
       <c r="C5">
-        <v>61.52491391151107</v>
+        <v>60.53117601422298</v>
       </c>
       <c r="D5">
-        <v>3342</v>
+        <v>3334</v>
       </c>
       <c r="E5">
-        <v>3342</v>
+        <v>3334</v>
       </c>
       <c r="F5">
-        <v>863.5469838420108</v>
+        <v>853.3901259748051</v>
       </c>
       <c r="G5">
-        <v>31.26919993526753</v>
+        <v>30.34129978119424</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>4517432.77</v>
+        <v>4447357.64</v>
       </c>
       <c r="C6">
-        <v>56.53061111062945</v>
+        <v>56.31074971432262</v>
       </c>
       <c r="D6">
-        <v>4662</v>
+        <v>4736</v>
       </c>
       <c r="E6">
-        <v>4662</v>
+        <v>4736</v>
       </c>
       <c r="F6">
-        <v>968.9902981552981</v>
+        <v>939.0535557432431</v>
       </c>
       <c r="G6">
-        <v>12.21048956064428</v>
+        <v>10.03801510716884</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2197704.26</v>
+        <v>2272603.46</v>
       </c>
       <c r="C7">
-        <v>-51.35059287224324</v>
+        <v>-48.89991667051989</v>
       </c>
       <c r="D7">
-        <v>2084</v>
+        <v>2283</v>
       </c>
       <c r="E7">
-        <v>2084</v>
+        <v>2283</v>
       </c>
       <c r="F7">
-        <v>1054.560585412668</v>
+        <v>995.4461060008761</v>
       </c>
       <c r="G7">
-        <v>8.830871415356079</v>
+        <v>6.005253897686313</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -426,7 +426,7 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>115677.51</v>
+        <v>115509.02</v>
       </c>
       <c r="D2">
         <v>258</v>
@@ -435,7 +435,7 @@
         <v>258</v>
       </c>
       <c r="F2">
-        <v>448.3624418604651</v>
+        <v>447.7093798449612</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,10 +443,10 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>956164.54</v>
+        <v>956160.54</v>
       </c>
       <c r="C3">
-        <v>726.5777332171136</v>
+        <v>727.7799777021743</v>
       </c>
       <c r="D3">
         <v>2159</v>
@@ -455,10 +455,10 @@
         <v>2159</v>
       </c>
       <c r="F3">
-        <v>442.8738026864289</v>
+        <v>442.8719499768412</v>
       </c>
       <c r="G3">
-        <v>-1.224152306616322</v>
+        <v>-1.080484369077828</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,10 +466,10 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>1772367.68</v>
+        <v>1772200.4</v>
       </c>
       <c r="C4">
-        <v>85.36220554675663</v>
+        <v>85.34548602057974</v>
       </c>
       <c r="D4">
         <v>2707</v>
@@ -478,10 +478,10 @@
         <v>2707</v>
       </c>
       <c r="F4">
-        <v>654.7350129294422</v>
+        <v>654.6732175840414</v>
       </c>
       <c r="G4">
-        <v>47.83782850958536</v>
+        <v>47.82449365291159</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,10 +489,10 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>2845202.68</v>
+        <v>2843142.44</v>
       </c>
       <c r="C5">
-        <v>60.53117601422298</v>
+        <v>60.43007551516184</v>
       </c>
       <c r="D5">
         <v>3334</v>
@@ -501,10 +501,10 @@
         <v>3334</v>
       </c>
       <c r="F5">
-        <v>853.3901259748051</v>
+        <v>852.772177564487</v>
       </c>
       <c r="G5">
-        <v>30.34129978119424</v>
+        <v>30.25921248336625</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>4447357.64</v>
+        <v>4443078.12</v>
       </c>
       <c r="C6">
-        <v>56.31074971432262</v>
+        <v>56.27349715197527</v>
       </c>
       <c r="D6">
         <v>4736</v>
@@ -524,10 +524,10 @@
         <v>4736</v>
       </c>
       <c r="F6">
-        <v>939.0535557432431</v>
+        <v>938.1499408783784</v>
       </c>
       <c r="G6">
-        <v>10.03801510716884</v>
+        <v>10.01179043595557</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2272603.46</v>
+        <v>2281119.59</v>
       </c>
       <c r="C7">
-        <v>-48.89991667051989</v>
+        <v>-48.65902582869735</v>
       </c>
       <c r="D7">
-        <v>2283</v>
+        <v>2306</v>
       </c>
       <c r="E7">
-        <v>2283</v>
+        <v>2306</v>
       </c>
       <c r="F7">
-        <v>995.4461060008761</v>
+        <v>989.2105767562879</v>
       </c>
       <c r="G7">
-        <v>6.005253897686313</v>
+        <v>5.442694568642414</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2281119.59</v>
+        <v>2286398.04</v>
       </c>
       <c r="C7">
-        <v>-48.65902582869735</v>
+        <v>-48.5402241813385</v>
       </c>
       <c r="D7">
-        <v>2306</v>
+        <v>2314</v>
       </c>
       <c r="E7">
-        <v>2306</v>
+        <v>2314</v>
       </c>
       <c r="F7">
-        <v>989.2105767562879</v>
+        <v>988.0717545375973</v>
       </c>
       <c r="G7">
-        <v>5.442694568642414</v>
+        <v>5.321304354875056</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2286398.04</v>
+        <v>2306154.85</v>
       </c>
       <c r="C7">
-        <v>-48.5402241813385</v>
+        <v>-48.0955592561132</v>
       </c>
       <c r="D7">
-        <v>2314</v>
+        <v>2337</v>
       </c>
       <c r="E7">
-        <v>2314</v>
+        <v>2337</v>
       </c>
       <c r="F7">
-        <v>988.0717545375973</v>
+        <v>986.8013906718015</v>
       </c>
       <c r="G7">
-        <v>5.321304354875056</v>
+        <v>5.185892752694876</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2306154.85</v>
+        <v>2323266.28</v>
       </c>
       <c r="C7">
-        <v>-48.0955592561132</v>
+        <v>-47.71043368465464</v>
       </c>
       <c r="D7">
-        <v>2337</v>
+        <v>2352</v>
       </c>
       <c r="E7">
-        <v>2337</v>
+        <v>2352</v>
       </c>
       <c r="F7">
-        <v>986.8013906718015</v>
+        <v>987.7832823129251</v>
       </c>
       <c r="G7">
-        <v>5.185892752694876</v>
+        <v>5.290555301647792</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2323266.28</v>
+        <v>2331520.68</v>
       </c>
       <c r="C7">
-        <v>-47.71043368465464</v>
+        <v>-47.52465257126741</v>
       </c>
       <c r="D7">
-        <v>2352</v>
+        <v>2367</v>
       </c>
       <c r="E7">
-        <v>2352</v>
+        <v>2367</v>
       </c>
       <c r="F7">
-        <v>987.7832823129251</v>
+        <v>985.0108491761724</v>
       </c>
       <c r="G7">
-        <v>5.290555301647792</v>
+        <v>4.995033976543106</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2331520.68</v>
+        <v>2356722.35</v>
       </c>
       <c r="C7">
-        <v>-47.52465257126741</v>
+        <v>-46.95744062226842</v>
       </c>
       <c r="D7">
-        <v>2367</v>
+        <v>2401</v>
       </c>
       <c r="E7">
-        <v>2367</v>
+        <v>2401</v>
       </c>
       <c r="F7">
-        <v>985.0108491761724</v>
+        <v>981.5586630570596</v>
       </c>
       <c r="G7">
-        <v>4.995033976543106</v>
+        <v>4.627055898765819</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2356722.35</v>
+        <v>2371795.28</v>
       </c>
       <c r="C7">
-        <v>-46.95744062226842</v>
+        <v>-46.61819540548615</v>
       </c>
       <c r="D7">
-        <v>2401</v>
+        <v>2421</v>
       </c>
       <c r="E7">
-        <v>2401</v>
+        <v>2421</v>
       </c>
       <c r="F7">
-        <v>981.5586630570596</v>
+        <v>979.6758694754233</v>
       </c>
       <c r="G7">
-        <v>4.627055898765819</v>
+        <v>4.426363717314175</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2371795.28</v>
+        <v>2386698.45</v>
       </c>
       <c r="C7">
-        <v>-46.61819540548615</v>
+        <v>-46.28277096329785</v>
       </c>
       <c r="D7">
-        <v>2421</v>
+        <v>2441</v>
       </c>
       <c r="E7">
-        <v>2421</v>
+        <v>2441</v>
       </c>
       <c r="F7">
-        <v>979.6758694754233</v>
+        <v>977.7543834494061</v>
       </c>
       <c r="G7">
-        <v>4.426363717314175</v>
+        <v>4.221547201073905</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2386698.45</v>
+        <v>2389782.08</v>
       </c>
       <c r="C7">
-        <v>-46.28277096329785</v>
+        <v>-46.21336795221598</v>
       </c>
       <c r="D7">
-        <v>2441</v>
+        <v>2454</v>
       </c>
       <c r="E7">
-        <v>2441</v>
+        <v>2454</v>
       </c>
       <c r="F7">
-        <v>977.7543834494061</v>
+        <v>973.8313284433578</v>
       </c>
       <c r="G7">
-        <v>4.221547201073905</v>
+        <v>3.803377904769834</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2389782.08</v>
+        <v>2457984.94</v>
       </c>
       <c r="C7">
-        <v>-46.21336795221598</v>
+        <v>-44.67833169676522</v>
       </c>
       <c r="D7">
-        <v>2454</v>
+        <v>2489</v>
       </c>
       <c r="E7">
-        <v>2454</v>
+        <v>2489</v>
       </c>
       <c r="F7">
-        <v>973.8313284433578</v>
+        <v>987.5391482523102</v>
       </c>
       <c r="G7">
-        <v>3.803377904769834</v>
+        <v>5.264532376102826</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2457984.94</v>
+        <v>2474043.83</v>
       </c>
       <c r="C7">
-        <v>-44.67833169676522</v>
+        <v>-44.31689555798313</v>
       </c>
       <c r="D7">
-        <v>2489</v>
+        <v>2510</v>
       </c>
       <c r="E7">
-        <v>2489</v>
+        <v>2510</v>
       </c>
       <c r="F7">
-        <v>987.5391482523102</v>
+        <v>985.6748326693228</v>
       </c>
       <c r="G7">
-        <v>5.264532376102826</v>
+        <v>5.065809815694</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2474043.83</v>
+        <v>2491414.55</v>
       </c>
       <c r="C7">
-        <v>-44.31689555798313</v>
+        <v>-43.92593416745957</v>
       </c>
       <c r="D7">
-        <v>2510</v>
+        <v>2533</v>
       </c>
       <c r="E7">
-        <v>2510</v>
+        <v>2533</v>
       </c>
       <c r="F7">
-        <v>985.6748326693228</v>
+        <v>983.5825305961311</v>
       </c>
       <c r="G7">
-        <v>5.065809815694</v>
+        <v>4.842785543984007</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2491414.55</v>
+        <v>2520158.2</v>
       </c>
       <c r="C7">
-        <v>-43.92593416745957</v>
+        <v>-43.27900316098876</v>
       </c>
       <c r="D7">
-        <v>2533</v>
+        <v>2560</v>
       </c>
       <c r="E7">
-        <v>2533</v>
+        <v>2560</v>
       </c>
       <c r="F7">
-        <v>983.5825305961311</v>
+        <v>984.436796875</v>
       </c>
       <c r="G7">
-        <v>4.842785543984007</v>
+        <v>4.933844152170797</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2520158.2</v>
+        <v>2529582.08</v>
       </c>
       <c r="C7">
-        <v>-43.27900316098876</v>
+        <v>-43.06690065580031</v>
       </c>
       <c r="D7">
-        <v>2560</v>
+        <v>2573</v>
       </c>
       <c r="E7">
-        <v>2560</v>
+        <v>2573</v>
       </c>
       <c r="F7">
-        <v>984.436796875</v>
+        <v>983.1255654877575</v>
       </c>
       <c r="G7">
-        <v>4.933844152170797</v>
+        <v>4.794076367714628</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2529582.08</v>
+        <v>2592318.06</v>
       </c>
       <c r="C7">
-        <v>-43.06690065580031</v>
+        <v>-41.6549070264828</v>
       </c>
       <c r="D7">
-        <v>2573</v>
+        <v>2619</v>
       </c>
       <c r="E7">
-        <v>2573</v>
+        <v>2619</v>
       </c>
       <c r="F7">
-        <v>983.1255654877575</v>
+        <v>989.8121649484536</v>
       </c>
       <c r="G7">
-        <v>4.794076367714628</v>
+        <v>5.506819519884476</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2592318.06</v>
+        <v>2627102.17</v>
       </c>
       <c r="C7">
-        <v>-41.6549070264828</v>
+        <v>-40.87202387519579</v>
       </c>
       <c r="D7">
-        <v>2619</v>
+        <v>2646</v>
       </c>
       <c r="E7">
-        <v>2619</v>
+        <v>2646</v>
       </c>
       <c r="F7">
-        <v>989.8121649484536</v>
+        <v>992.8579629629629</v>
       </c>
       <c r="G7">
-        <v>5.506819519884476</v>
+        <v>5.83147956427541</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2627102.17</v>
+        <v>2662068.2</v>
       </c>
       <c r="C7">
-        <v>-40.87202387519579</v>
+        <v>-40.08504626517798</v>
       </c>
       <c r="D7">
-        <v>2646</v>
+        <v>2680</v>
       </c>
       <c r="E7">
-        <v>2646</v>
+        <v>2680</v>
       </c>
       <c r="F7">
-        <v>992.8579629629629</v>
+        <v>993.3090298507464</v>
       </c>
       <c r="G7">
-        <v>5.83147956427541</v>
+        <v>5.879560032879527</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2662068.2</v>
+        <v>2679493.91</v>
       </c>
       <c r="C7">
-        <v>-40.08504626517798</v>
+        <v>-39.69284721917066</v>
       </c>
       <c r="D7">
-        <v>2680</v>
+        <v>2701</v>
       </c>
       <c r="E7">
-        <v>2680</v>
+        <v>2701</v>
       </c>
       <c r="F7">
-        <v>993.3090298507464</v>
+        <v>992.0377304701963</v>
       </c>
       <c r="G7">
-        <v>5.879560032879527</v>
+        <v>5.744048711591176</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2679493.91</v>
+        <v>2692931.66</v>
       </c>
       <c r="C7">
-        <v>-39.69284721917066</v>
+        <v>-39.39040486643525</v>
       </c>
       <c r="D7">
-        <v>2701</v>
+        <v>2720</v>
       </c>
       <c r="E7">
-        <v>2701</v>
+        <v>2720</v>
       </c>
       <c r="F7">
-        <v>992.0377304701963</v>
+        <v>990.0484044117647</v>
       </c>
       <c r="G7">
-        <v>5.744048711591176</v>
+        <v>5.53200093844215</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2692931.66</v>
+        <v>2722510.71</v>
       </c>
       <c r="C7">
-        <v>-39.39040486643525</v>
+        <v>-38.72467157971106</v>
       </c>
       <c r="D7">
-        <v>2720</v>
+        <v>2759</v>
       </c>
       <c r="E7">
-        <v>2720</v>
+        <v>2759</v>
       </c>
       <c r="F7">
-        <v>990.0484044117647</v>
+        <v>986.7744508880029</v>
       </c>
       <c r="G7">
-        <v>5.53200093844215</v>
+        <v>5.183021166541657</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2722510.71</v>
+        <v>2739981.91</v>
       </c>
       <c r="C7">
-        <v>-38.72467157971106</v>
+        <v>-38.33144869395184</v>
       </c>
       <c r="D7">
-        <v>2759</v>
+        <v>2789</v>
       </c>
       <c r="E7">
-        <v>2759</v>
+        <v>2789</v>
       </c>
       <c r="F7">
-        <v>986.7744508880029</v>
+        <v>982.4244926496953</v>
       </c>
       <c r="G7">
-        <v>5.183021166541657</v>
+        <v>4.71934707258661</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2739981.91</v>
+        <v>2755607.63</v>
       </c>
       <c r="C7">
-        <v>-38.33144869395184</v>
+        <v>-37.97976187733562</v>
       </c>
       <c r="D7">
-        <v>2789</v>
+        <v>2802</v>
       </c>
       <c r="E7">
-        <v>2789</v>
+        <v>2802</v>
       </c>
       <c r="F7">
-        <v>982.4244926496953</v>
+        <v>983.4431227694504</v>
       </c>
       <c r="G7">
-        <v>4.71934707258661</v>
+        <v>4.827925677708245</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2755607.63</v>
+        <v>2765916.02</v>
       </c>
       <c r="C7">
-        <v>-37.97976187733562</v>
+        <v>-37.74775177709457</v>
       </c>
       <c r="D7">
-        <v>2802</v>
+        <v>2816</v>
       </c>
       <c r="E7">
-        <v>2802</v>
+        <v>2816</v>
       </c>
       <c r="F7">
-        <v>983.4431227694504</v>
+        <v>982.2144957386364</v>
       </c>
       <c r="G7">
-        <v>4.827925677708245</v>
+        <v>4.696962920340941</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2765916.02</v>
+        <v>2788553.62</v>
       </c>
       <c r="C7">
-        <v>-37.74775177709457</v>
+        <v>-37.23824914426667</v>
       </c>
       <c r="D7">
-        <v>2816</v>
+        <v>2836</v>
       </c>
       <c r="E7">
-        <v>2816</v>
+        <v>2836</v>
       </c>
       <c r="F7">
-        <v>982.2144957386364</v>
+        <v>983.2699647390691</v>
       </c>
       <c r="G7">
-        <v>4.696962920340941</v>
+        <v>4.809468283763407</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2788553.62</v>
+        <v>2807076.42</v>
       </c>
       <c r="C7">
-        <v>-37.23824914426667</v>
+        <v>-36.821357982335</v>
       </c>
       <c r="D7">
-        <v>2836</v>
+        <v>2866</v>
       </c>
       <c r="E7">
-        <v>2836</v>
+        <v>2866</v>
       </c>
       <c r="F7">
-        <v>983.2699647390691</v>
+        <v>979.4404815073273</v>
       </c>
       <c r="G7">
-        <v>4.809468283763407</v>
+        <v>4.401273061989319</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2807076.42</v>
+        <v>2863668.32</v>
       </c>
       <c r="C7">
-        <v>-36.821357982335</v>
+        <v>-35.54764866479548</v>
       </c>
       <c r="D7">
-        <v>2866</v>
+        <v>2881</v>
       </c>
       <c r="E7">
-        <v>2866</v>
+        <v>2881</v>
       </c>
       <c r="F7">
-        <v>979.4404815073273</v>
+        <v>993.9841443943075</v>
       </c>
       <c r="G7">
-        <v>4.401273061989319</v>
+        <v>5.951522361516348</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2863668.32</v>
+        <v>2879344.72</v>
       </c>
       <c r="C7">
-        <v>-35.54764866479548</v>
+        <v>-35.194821197517</v>
       </c>
       <c r="D7">
-        <v>2881</v>
+        <v>2896</v>
       </c>
       <c r="E7">
-        <v>2881</v>
+        <v>2896</v>
       </c>
       <c r="F7">
-        <v>993.9841443943075</v>
+        <v>994.248867403315</v>
       </c>
       <c r="G7">
-        <v>5.951522361516348</v>
+        <v>5.979739920082694</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2879344.72</v>
+        <v>2893276.92</v>
       </c>
       <c r="C7">
-        <v>-35.194821197517</v>
+        <v>-34.88125029861055</v>
       </c>
       <c r="D7">
-        <v>2896</v>
+        <v>2917</v>
       </c>
       <c r="E7">
-        <v>2896</v>
+        <v>2917</v>
       </c>
       <c r="F7">
-        <v>994.248867403315</v>
+        <v>991.8673020226259</v>
       </c>
       <c r="G7">
-        <v>5.979739920082694</v>
+        <v>5.725882271436555</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2893276.92</v>
+        <v>2902457.32</v>
       </c>
       <c r="C7">
-        <v>-34.88125029861055</v>
+        <v>-34.67462777809543</v>
       </c>
       <c r="D7">
-        <v>2917</v>
+        <v>2928</v>
       </c>
       <c r="E7">
-        <v>2917</v>
+        <v>2928</v>
       </c>
       <c r="F7">
-        <v>991.8673020226259</v>
+        <v>991.2764071038251</v>
       </c>
       <c r="G7">
-        <v>5.725882271436555</v>
+        <v>5.662897145812851</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2902457.32</v>
+        <v>2916266.02</v>
       </c>
       <c r="C7">
-        <v>-34.67462777809543</v>
+        <v>-34.36383648370334</v>
       </c>
       <c r="D7">
-        <v>2928</v>
+        <v>2935</v>
       </c>
       <c r="E7">
-        <v>2928</v>
+        <v>2935</v>
       </c>
       <c r="F7">
-        <v>991.2764071038251</v>
+        <v>993.6170425894378</v>
       </c>
       <c r="G7">
-        <v>5.662897145812851</v>
+        <v>5.912391963605113</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2916266.02</v>
+        <v>2925757.38</v>
       </c>
       <c r="C7">
-        <v>-34.36383648370334</v>
+        <v>-34.150215211611</v>
       </c>
       <c r="D7">
-        <v>2935</v>
+        <v>2954</v>
       </c>
       <c r="E7">
-        <v>2935</v>
+        <v>2954</v>
       </c>
       <c r="F7">
-        <v>993.6170425894378</v>
+        <v>990.4391943127962</v>
       </c>
       <c r="G7">
-        <v>5.912391963605113</v>
+        <v>5.573656316117237</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2925757.38</v>
+        <v>2937387.51</v>
       </c>
       <c r="C7">
-        <v>-34.150215211611</v>
+        <v>-33.88845681605977</v>
       </c>
       <c r="D7">
-        <v>2954</v>
+        <v>2970</v>
       </c>
       <c r="E7">
-        <v>2954</v>
+        <v>2970</v>
       </c>
       <c r="F7">
-        <v>990.4391943127962</v>
+        <v>989.0193636363636</v>
       </c>
       <c r="G7">
-        <v>5.573656316117237</v>
+        <v>5.422312632707382</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2937387.51</v>
+        <v>2943208.11</v>
       </c>
       <c r="C7">
-        <v>-33.88845681605977</v>
+        <v>-33.75745304248669</v>
       </c>
       <c r="D7">
-        <v>2970</v>
+        <v>2985</v>
       </c>
       <c r="E7">
-        <v>2970</v>
+        <v>2985</v>
       </c>
       <c r="F7">
-        <v>989.0193636363636</v>
+        <v>985.9993668341708</v>
       </c>
       <c r="G7">
-        <v>5.422312632707382</v>
+        <v>5.100402810982607</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2943208.11</v>
+        <v>2957181.43</v>
       </c>
       <c r="C7">
-        <v>-33.75745304248669</v>
+        <v>-33.44295665906499</v>
       </c>
       <c r="D7">
-        <v>2985</v>
+        <v>3003</v>
       </c>
       <c r="E7">
-        <v>2985</v>
+        <v>3003</v>
       </c>
       <c r="F7">
-        <v>985.9993668341708</v>
+        <v>984.742400932401</v>
       </c>
       <c r="G7">
-        <v>5.100402810982607</v>
+        <v>4.966419334887839</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2957181.43</v>
+        <v>2967942.6</v>
       </c>
       <c r="C7">
-        <v>-33.44295665906499</v>
+        <v>-33.20075587597366</v>
       </c>
       <c r="D7">
-        <v>3003</v>
+        <v>3022</v>
       </c>
       <c r="E7">
-        <v>3003</v>
+        <v>3022</v>
       </c>
       <c r="F7">
-        <v>984.742400932401</v>
+        <v>982.112045003309</v>
       </c>
       <c r="G7">
-        <v>4.966419334887839</v>
+        <v>4.686042412769265</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>2967942.6</v>
+        <v>3475568.21</v>
       </c>
       <c r="C7">
-        <v>-33.20075587597366</v>
+        <v>-21.77566731597328</v>
       </c>
       <c r="D7">
-        <v>3022</v>
+        <v>3041</v>
       </c>
       <c r="E7">
-        <v>3022</v>
+        <v>3041</v>
       </c>
       <c r="F7">
-        <v>982.112045003309</v>
+        <v>1142.90306149293</v>
       </c>
       <c r="G7">
-        <v>4.686042412769265</v>
+        <v>21.82520210179235</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3475568.21</v>
+        <v>3517481.52</v>
       </c>
       <c r="C7">
-        <v>-21.77566731597328</v>
+        <v>-20.83232783672056</v>
       </c>
       <c r="D7">
-        <v>3041</v>
+        <v>3073</v>
       </c>
       <c r="E7">
-        <v>3041</v>
+        <v>3073</v>
       </c>
       <c r="F7">
-        <v>1142.90306149293</v>
+        <v>1144.640911161731</v>
       </c>
       <c r="G7">
-        <v>21.82520210179235</v>
+        <v>22.01044431021526</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3517481.52</v>
+        <v>3552926.13</v>
       </c>
       <c r="C7">
-        <v>-20.83232783672056</v>
+        <v>-20.03457886533852</v>
       </c>
       <c r="D7">
-        <v>3073</v>
+        <v>3107</v>
       </c>
       <c r="E7">
-        <v>3073</v>
+        <v>3107</v>
       </c>
       <c r="F7">
-        <v>1144.640911161731</v>
+        <v>1143.523054393305</v>
       </c>
       <c r="G7">
-        <v>22.01044431021526</v>
+        <v>21.89128886184639</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3552926.13</v>
+        <v>3598093.74</v>
       </c>
       <c r="C7">
-        <v>-20.03457886533852</v>
+        <v>-19.01799511911351</v>
       </c>
       <c r="D7">
-        <v>3107</v>
+        <v>3139</v>
       </c>
       <c r="E7">
-        <v>3107</v>
+        <v>3139</v>
       </c>
       <c r="F7">
-        <v>1143.523054393305</v>
+        <v>1146.25477540618</v>
       </c>
       <c r="G7">
-        <v>21.89128886184639</v>
+        <v>22.18247056893228</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3598093.74</v>
+        <v>3633115.79</v>
       </c>
       <c r="C7">
-        <v>-19.01799511911351</v>
+        <v>-18.22975667148522</v>
       </c>
       <c r="D7">
-        <v>3139</v>
+        <v>3183</v>
       </c>
       <c r="E7">
-        <v>3139</v>
+        <v>3183</v>
       </c>
       <c r="F7">
-        <v>1146.25477540618</v>
+        <v>1141.412437951618</v>
       </c>
       <c r="G7">
-        <v>22.18247056893228</v>
+        <v>21.6663124108847</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3633115.79</v>
+        <v>3647541.63</v>
       </c>
       <c r="C7">
-        <v>-18.22975667148522</v>
+        <v>-17.90507545701222</v>
       </c>
       <c r="D7">
-        <v>3183</v>
+        <v>3203</v>
       </c>
       <c r="E7">
-        <v>3183</v>
+        <v>3203</v>
       </c>
       <c r="F7">
-        <v>1141.412437951618</v>
+        <v>1138.789144551982</v>
       </c>
       <c r="G7">
-        <v>21.6663124108847</v>
+        <v>21.38668830333752</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3647541.63</v>
+        <v>3664770.1</v>
       </c>
       <c r="C7">
-        <v>-17.90507545701222</v>
+        <v>-17.51731567573698</v>
       </c>
       <c r="D7">
-        <v>3203</v>
+        <v>3224</v>
       </c>
       <c r="E7">
-        <v>3203</v>
+        <v>3224</v>
       </c>
       <c r="F7">
-        <v>1138.789144551982</v>
+        <v>1136.715291563276</v>
       </c>
       <c r="G7">
-        <v>21.38668830333752</v>
+        <v>21.16563057062955</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3664770.1</v>
+        <v>3705484.21</v>
       </c>
       <c r="C7">
-        <v>-17.51731567573698</v>
+        <v>-16.60096649392246</v>
       </c>
       <c r="D7">
-        <v>3224</v>
+        <v>3275</v>
       </c>
       <c r="E7">
-        <v>3224</v>
+        <v>3275</v>
       </c>
       <c r="F7">
-        <v>1136.715291563276</v>
+        <v>1131.445560305343</v>
       </c>
       <c r="G7">
-        <v>21.16563057062955</v>
+        <v>20.60391532359791</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3705484.21</v>
+        <v>3721112.21</v>
       </c>
       <c r="C7">
-        <v>-16.60096649392246</v>
+        <v>-16.24922836153059</v>
       </c>
       <c r="D7">
-        <v>3275</v>
+        <v>3294</v>
       </c>
       <c r="E7">
-        <v>3275</v>
+        <v>3294</v>
       </c>
       <c r="F7">
-        <v>1131.445560305343</v>
+        <v>1129.663694596235</v>
       </c>
       <c r="G7">
-        <v>20.60391532359791</v>
+        <v>20.41398132355528</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3721112.21</v>
+        <v>3752851.75</v>
       </c>
       <c r="C7">
-        <v>-16.24922836153059</v>
+        <v>-15.53486910106365</v>
       </c>
       <c r="D7">
-        <v>3294</v>
+        <v>3338</v>
       </c>
       <c r="E7">
-        <v>3294</v>
+        <v>3338</v>
       </c>
       <c r="F7">
-        <v>1129.663694596235</v>
+        <v>1124.2815308568</v>
       </c>
       <c r="G7">
-        <v>20.41398132355528</v>
+        <v>19.84028158698696</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3752851.75</v>
+        <v>3778808.76</v>
       </c>
       <c r="C7">
-        <v>-15.53486910106365</v>
+        <v>-14.95065677575798</v>
       </c>
       <c r="D7">
-        <v>3338</v>
+        <v>3373</v>
       </c>
       <c r="E7">
-        <v>3338</v>
+        <v>3373</v>
       </c>
       <c r="F7">
-        <v>1124.2815308568</v>
+        <v>1120.310927957308</v>
       </c>
       <c r="G7">
-        <v>19.84028158698696</v>
+        <v>19.41704402905728</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3778808.76</v>
+        <v>3829411.6</v>
       </c>
       <c r="C7">
-        <v>-14.95065677575798</v>
+        <v>-13.81174274739063</v>
       </c>
       <c r="D7">
-        <v>3373</v>
+        <v>3390</v>
       </c>
       <c r="E7">
-        <v>3373</v>
+        <v>3390</v>
       </c>
       <c r="F7">
-        <v>1120.310927957308</v>
+        <v>1129.61994100295</v>
       </c>
       <c r="G7">
-        <v>19.41704402905728</v>
+        <v>20.40931750689026</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3829411.6</v>
+        <v>3935283.45</v>
       </c>
       <c r="C7">
-        <v>-13.81174274739063</v>
+        <v>-11.42889357975097</v>
       </c>
       <c r="D7">
-        <v>3390</v>
+        <v>3406</v>
       </c>
       <c r="E7">
-        <v>3390</v>
+        <v>3406</v>
       </c>
       <c r="F7">
-        <v>1129.61994100295</v>
+        <v>1155.397372284204</v>
       </c>
       <c r="G7">
-        <v>20.40931750689026</v>
+        <v>23.15700528664106</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3935283.45</v>
+        <v>3945777.25</v>
       </c>
       <c r="C7">
-        <v>-11.42889357975097</v>
+        <v>-11.19271047163132</v>
       </c>
       <c r="D7">
-        <v>3406</v>
+        <v>3415</v>
       </c>
       <c r="E7">
-        <v>3406</v>
+        <v>3415</v>
       </c>
       <c r="F7">
-        <v>1155.397372284204</v>
+        <v>1155.425256222548</v>
       </c>
       <c r="G7">
-        <v>23.15700528664106</v>
+        <v>23.1599775128416</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_anual.xlsx
@@ -535,22 +535,22 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <v>3945777.25</v>
+        <v>3992870.79</v>
       </c>
       <c r="C7">
-        <v>-11.19271047163132</v>
+        <v>-10.13277997461813</v>
       </c>
       <c r="D7">
-        <v>3415</v>
+        <v>3466</v>
       </c>
       <c r="E7">
-        <v>3415</v>
+        <v>3466</v>
       </c>
       <c r="F7">
-        <v>1155.425256222548</v>
+        <v>1152.011191575303</v>
       </c>
       <c r="G7">
-        <v>23.1599775128416</v>
+        <v>22.79606290831175</v>
       </c>
     </row>
   </sheetData>
